--- a/mosip_master/xlsx/screen_authorization.xlsx
+++ b/mosip_master/xlsx/screen_authorization.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagarjuna\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tf_nira\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D09CEA-71BB-4C2D-80C3-7148737476D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC87BE28-3992-429D-A7E4-9F62CAAF52D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="19">
   <si>
     <t>lang_code</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>correctionRoot</t>
+  </si>
+  <si>
+    <t>getFirstIdRoot</t>
   </si>
 </sst>
 </file>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,6 +844,57 @@
         <v>8</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
